--- a/__src__/__tmp__/tmp_formatos_seleccionados.xlsx
+++ b/__src__/__tmp__/tmp_formatos_seleccionados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Koening\HuffModel\huff-model-macro\__src__\__tmp__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B487B57E-FC4E-4621-A4E3-E06A100BC2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B9F2E6-98B2-46C5-B0A2-A37B1BCE0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CECEC8F7-3F52-4462-98E8-55120E012F53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{403041FF-A429-457F-978C-C17D913E8D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Formatos</t>
   </si>
   <si>
-    <t>--todos--</t>
+    <t>Supermercado</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE85A64-319F-416D-9C47-22939AB1B5F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81351A35-5781-469D-B98A-588D3677BAE5}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
